--- a/SQLExcelsheet.xlsx
+++ b/SQLExcelsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL Pracrice\SQLpractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE4D789-F401-4100-A073-A6E9209CD97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9801AEE-9F8C-4B25-9F47-870B50E8B0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F714647-3574-4DEF-B368-F2CAD3E2FEB5}"/>
   </bookViews>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5433B3F4-1471-4BC4-810F-85C769D72C48}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
